--- a/public/import/hc.xlsx
+++ b/public/import/hc.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\project\hc\MicroCommunityWeb\public\import\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
@@ -167,7 +172,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -516,7 +521,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1672,7 +1677,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1728,9 +1733,7 @@
       <c r="D2" s="1">
         <v>98.32</v>
       </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
+      <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>

--- a/public/import/hc.xlsx
+++ b/public/import/hc.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\project\hc\MicroCommunityWeb\public\import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="楼栋单元" sheetId="1" r:id="rId1"/>
     <sheet name="业主信息" sheetId="3" r:id="rId2"/>
-    <sheet name="房屋信息" sheetId="2" r:id="rId3"/>
-    <sheet name="车位信息" sheetId="4" r:id="rId4"/>
+    <sheet name="费用设置" sheetId="5" r:id="rId3"/>
+    <sheet name="房屋信息" sheetId="2" r:id="rId4"/>
+    <sheet name="车位信息" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="140">
   <si>
     <t>总层数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,27 +146,450 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>身份证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>632126199109162011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停车场编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停车场类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车类型（9901 家用小汽车 9902 客车 9903 货车）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收费项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付费类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缴费周期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出账类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计费起始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计费结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算公式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计费单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物业费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周期性费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预付费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每月1日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面积*单价+附加费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">固定费用
+                                        </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房屋费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试收费1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试收费2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1#2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房屋费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果一个房屋对应多个费用信息，费用信息间用#号分隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1#2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1#2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前只有物业费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收费项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用名称不重复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周期性费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一次性费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缴费周期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要求业主缴费最小周期 单位为月，正整数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出账类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每年1月1日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每月1日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计费起始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用项开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计费结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用项结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为正整数 单位为元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有在计算公式为1001时有用，单位为元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼栋号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼栋编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单元编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单元编号 一单元填写 1 二单元填写 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总层数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼层数量 正整数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否有电梯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有电梯是填写是 没有时填写否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业主编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须为唯一值，不能重复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业主名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业主真实名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男，女，如果没有该信息固定写男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业主年龄 如果没有固定写1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业主真实手机号，11位，没有时固定写18999999999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业主有效身份证 没有时填写 111111111111111111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业主名称 手机号 身份证是业主重要信息，手机端业主绑定
+信息时需要校验，如果没有，无法保证业主使用手机端APP
+进行缴费等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房屋编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房屋真实编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单元编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和楼栋单元选项中的楼栋编号保持一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和楼栋单元选项中的单元编号保持一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房屋楼层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房屋真实楼层，如果没有请填写1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房屋户型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前填写为1010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房屋真实房屋面积，房屋物业费等都是根据这个面积计算，请填写正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业主编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业主信息选项中的业主编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停车场编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小区停车场编号，只有一个是填写1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车位编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小区车位编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停车场类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地上停车位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地下停车位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果有填写真实面积，没有写1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果车位有卖或者已出租填写一下信息，否则留空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车牌号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆车牌号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家用小汽车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出售还是出租</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>出租还是出售（H出租S出售）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>身份证号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>632126199109162011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>停车场编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>停车场类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>车类型（9901 家用小汽车 9902 客车 9903 货车）</t>
+    <t>H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出租</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出售</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -197,7 +621,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -220,22 +644,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -244,11 +657,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -529,10 +944,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -541,9 +956,10 @@
     <col min="2" max="2" width="10.625" customWidth="1"/>
     <col min="3" max="3" width="12.375" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -557,7 +973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -571,7 +987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -585,7 +1001,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -598,8 +1014,11 @@
       <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -612,8 +1031,14 @@
       <c r="D5" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -626,8 +1051,14 @@
       <c r="D6" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -640,8 +1071,14 @@
       <c r="D7" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -654,8 +1091,14 @@
       <c r="D8" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>4</v>
       </c>
@@ -669,7 +1112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>5</v>
       </c>
@@ -683,7 +1126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>5</v>
       </c>
@@ -697,7 +1140,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>6</v>
       </c>
@@ -711,7 +1154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>6</v>
       </c>
@@ -725,7 +1168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>7</v>
       </c>
@@ -739,7 +1182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>7</v>
       </c>
@@ -753,7 +1196,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>8</v>
       </c>
@@ -936,19 +1379,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.75" customWidth="1"/>
+    <col min="11" max="11" width="48.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -964,11 +1408,11 @@
       <c r="E1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F1" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -984,11 +1428,11 @@
       <c r="E2" s="1">
         <v>18999999999</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F2" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1004,11 +1448,11 @@
       <c r="E3" s="1">
         <v>18999999991</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F3" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1024,11 +1468,11 @@
       <c r="E4" s="1">
         <v>18999999992</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F4" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1044,11 +1488,11 @@
       <c r="E5" s="1">
         <v>18999999993</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F5" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1064,89 +1508,134 @@
       <c r="E6" s="1">
         <v>18999999994</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F8" s="8"/>
+      <c r="J8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F9" s="8"/>
+      <c r="J9" t="s">
+        <v>89</v>
+      </c>
+      <c r="K9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F10" s="8"/>
+      <c r="J10" t="s">
+        <v>91</v>
+      </c>
+      <c r="K10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F11" s="8"/>
+      <c r="J11" t="s">
+        <v>93</v>
+      </c>
+      <c r="K11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F12" s="8"/>
+      <c r="J12" t="s">
+        <v>95</v>
+      </c>
+      <c r="K12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F13" s="8"/>
+      <c r="J13" t="s">
+        <v>97</v>
+      </c>
+      <c r="K13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F14" s="8"/>
+      <c r="J14" t="s">
+        <v>99</v>
+      </c>
+      <c r="K14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="6"/>
+      <c r="F16" s="8"/>
+      <c r="J16" t="s">
+        <v>101</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
@@ -1154,7 +1643,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="6"/>
+      <c r="F17" s="8"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
@@ -1162,7 +1651,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="6"/>
+      <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
@@ -1170,7 +1659,7 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="6"/>
+      <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
@@ -1178,7 +1667,7 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="6"/>
+      <c r="F20" s="8"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
@@ -1186,7 +1675,7 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="6"/>
+      <c r="F21" s="8"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
@@ -1194,7 +1683,7 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="6"/>
+      <c r="F22" s="8"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
@@ -1202,7 +1691,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="6"/>
+      <c r="F23" s="8"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
@@ -1210,7 +1699,7 @@
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="6"/>
+      <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
@@ -1218,7 +1707,7 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="6"/>
+      <c r="F25" s="8"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
@@ -1226,7 +1715,7 @@
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="6"/>
+      <c r="F26" s="8"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
@@ -1234,7 +1723,7 @@
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="6"/>
+      <c r="F27" s="8"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
@@ -1242,7 +1731,7 @@
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="6"/>
+      <c r="F28" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1253,15 +1742,271 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="6">
+        <v>43992</v>
+      </c>
+      <c r="I2" s="6">
+        <v>50041</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1001</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="L2" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="1">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="6">
+        <v>43992</v>
+      </c>
+      <c r="I3" s="6">
+        <v>50041</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1001</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O5" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5">
+        <v>1001</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="P6">
+        <v>2002</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O8" t="s">
+        <v>63</v>
+      </c>
+      <c r="P8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O9" t="s">
+        <v>65</v>
+      </c>
+      <c r="P9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O11" t="s">
+        <v>68</v>
+      </c>
+      <c r="P11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O12" t="s">
+        <v>70</v>
+      </c>
+      <c r="P12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O16" t="s">
+        <v>75</v>
+      </c>
+      <c r="P16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O17" t="s">
+        <v>77</v>
+      </c>
+      <c r="P17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O18" t="s">
+        <v>44</v>
+      </c>
+      <c r="P18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O19" t="s">
+        <v>45</v>
+      </c>
+      <c r="P19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M31"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="13" max="13" width="51.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1283,8 +2028,11 @@
       <c r="G1" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1011</v>
       </c>
@@ -1306,8 +2054,11 @@
       <c r="G2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1012</v>
       </c>
@@ -1329,8 +2080,11 @@
       <c r="G3" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1013</v>
       </c>
@@ -1352,8 +2106,11 @@
       <c r="G4" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1014</v>
       </c>
@@ -1375,8 +2132,11 @@
       <c r="G5" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1021</v>
       </c>
@@ -1398,8 +2158,14 @@
       <c r="G6" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6" s="5">
+        <v>2</v>
+      </c>
+      <c r="L6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1022</v>
       </c>
@@ -1421,8 +2187,17 @@
       <c r="G7" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7" s="5">
+        <v>2</v>
+      </c>
+      <c r="L7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1023</v>
       </c>
@@ -1444,8 +2219,17 @@
       <c r="G8" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8" s="5">
+        <v>2</v>
+      </c>
+      <c r="L8" t="s">
+        <v>103</v>
+      </c>
+      <c r="M8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1024</v>
       </c>
@@ -1467,8 +2251,17 @@
       <c r="G9" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L9" t="s">
+        <v>82</v>
+      </c>
+      <c r="M9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1476,8 +2269,15 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10" s="1"/>
+      <c r="L10" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1485,8 +2285,15 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11" s="1"/>
+      <c r="L11" t="s">
+        <v>108</v>
+      </c>
+      <c r="M11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1494,8 +2301,15 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12" s="1"/>
+      <c r="L12" t="s">
+        <v>110</v>
+      </c>
+      <c r="M12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1503,8 +2317,15 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13" s="1"/>
+      <c r="L13" t="s">
+        <v>112</v>
+      </c>
+      <c r="M13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1512,8 +2333,15 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14" s="1"/>
+      <c r="L14" t="s">
+        <v>114</v>
+      </c>
+      <c r="M14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1521,8 +2349,9 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1530,8 +2359,9 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1539,8 +2369,9 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1548,8 +2379,9 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1557,8 +2389,9 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1566,8 +2399,9 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1575,8 +2409,9 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1584,8 +2419,9 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1593,8 +2429,9 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1602,8 +2439,9 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1611,8 +2449,9 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1620,8 +2459,9 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1629,8 +2469,9 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1638,8 +2479,9 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1647,8 +2489,9 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1656,8 +2499,9 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1665,6 +2509,7 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1672,12 +2517,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1688,15 +2533,15 @@
     <col min="10" max="10" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>23</v>
@@ -1711,16 +2556,16 @@
         <v>27</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>28</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1740,7 +2585,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1752,7 +2597,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1764,7 +2609,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1775,8 +2620,11 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1787,8 +2635,14 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L6" t="s">
+        <v>116</v>
+      </c>
+      <c r="M6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1799,8 +2653,14 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L7" t="s">
+        <v>118</v>
+      </c>
+      <c r="M7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1811,8 +2671,14 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L8" t="s">
+        <v>120</v>
+      </c>
+      <c r="M8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1823,8 +2689,11 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1835,8 +2704,14 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L10" t="s">
+        <v>123</v>
+      </c>
+      <c r="M10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1847,8 +2722,14 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L11" t="s">
+        <v>89</v>
+      </c>
+      <c r="M11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1859,8 +2740,14 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L12" t="s">
+        <v>126</v>
+      </c>
+      <c r="M12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1871,8 +2758,17 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L13" t="s">
+        <v>128</v>
+      </c>
+      <c r="M13">
+        <v>9901</v>
+      </c>
+      <c r="N13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1883,8 +2779,14 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M14">
+        <v>9902</v>
+      </c>
+      <c r="N14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1895,8 +2797,14 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M15">
+        <v>9903</v>
+      </c>
+      <c r="N15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1907,8 +2815,14 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L16" t="s">
+        <v>132</v>
+      </c>
+      <c r="M16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1919,8 +2833,17 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L17" t="s">
+        <v>134</v>
+      </c>
+      <c r="M17" t="s">
+        <v>136</v>
+      </c>
+      <c r="N17" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1931,8 +2854,14 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M18" t="s">
+        <v>138</v>
+      </c>
+      <c r="N18" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1944,7 +2873,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1956,7 +2885,7 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1968,7 +2897,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>

--- a/public/import/hc.xlsx
+++ b/public/import/hc.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\project\hc\MicroCommunityWeb\public\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="楼栋单元" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="143">
   <si>
     <t>总层数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -267,10 +267,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>如果一个房屋对应多个费用信息，费用信息间用#号分隔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1#2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -319,10 +315,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每月1日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>每日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -344,14 +336,6 @@
   </si>
   <si>
     <t>费用项结束时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>为正整数 单位为元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只有在计算公式为1001时有用，单位为元</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -590,6 +574,34 @@
   </si>
   <si>
     <t>出售</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用到期时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-06-10#2020-07-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预付费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每月1日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为正整数 单位为元 没有时填写0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有在计算公式为1001时有用，单位为元 没有时填写0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果一个房屋对应多个费用信息，费用信息间用#号分隔，如果费用设置中没有费用时这里填写为0 系统默认费用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1032,10 +1044,10 @@
         <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -1052,10 +1064,10 @@
         <v>2</v>
       </c>
       <c r="H6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1072,10 +1084,10 @@
         <v>2</v>
       </c>
       <c r="H7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -1092,10 +1104,10 @@
         <v>2</v>
       </c>
       <c r="H8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1539,10 +1551,10 @@
       <c r="E9" s="1"/>
       <c r="F9" s="8"/>
       <c r="J9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K9" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -1553,10 +1565,10 @@
       <c r="E10" s="1"/>
       <c r="F10" s="8"/>
       <c r="J10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K10" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -1567,10 +1579,10 @@
       <c r="E11" s="1"/>
       <c r="F11" s="8"/>
       <c r="J11" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K11" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -1581,10 +1593,10 @@
       <c r="E12" s="1"/>
       <c r="F12" s="8"/>
       <c r="J12" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K12" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -1595,10 +1607,10 @@
       <c r="E13" s="1"/>
       <c r="F13" s="8"/>
       <c r="J13" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="K13" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -1609,10 +1621,10 @@
       <c r="E14" s="1"/>
       <c r="F14" s="8"/>
       <c r="J14" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="K14" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -1631,10 +1643,10 @@
       <c r="E16" s="1"/>
       <c r="F16" s="8"/>
       <c r="J16" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1745,7 +1757,7 @@
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1808,7 +1820,7 @@
         <v>47</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>48</v>
+        <v>138</v>
       </c>
       <c r="F2" s="1">
         <v>6</v>
@@ -1899,75 +1911,75 @@
         <v>35</v>
       </c>
       <c r="P7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="O8" t="s">
+        <v>62</v>
+      </c>
+      <c r="P8" t="s">
         <v>63</v>
-      </c>
-      <c r="P8" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="O9" t="s">
+        <v>64</v>
+      </c>
+      <c r="P9" t="s">
         <v>65</v>
-      </c>
-      <c r="P9" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="O11" t="s">
+        <v>67</v>
+      </c>
+      <c r="P11" t="s">
         <v>68</v>
-      </c>
-      <c r="P11" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="O12" t="s">
+        <v>69</v>
+      </c>
+      <c r="P12" t="s">
         <v>70</v>
-      </c>
-      <c r="P12" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P13" t="s">
-        <v>72</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="O16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="15:16" x14ac:dyDescent="0.2">
       <c r="O17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="15:16" x14ac:dyDescent="0.2">
@@ -1975,7 +1987,7 @@
         <v>44</v>
       </c>
       <c r="P18" t="s">
-        <v>80</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="15:16" x14ac:dyDescent="0.2">
@@ -1983,7 +1995,7 @@
         <v>45</v>
       </c>
       <c r="P19" t="s">
-        <v>79</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1997,12 +2009,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="51.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2031,6 +2044,9 @@
       <c r="H1" s="3" t="s">
         <v>53</v>
       </c>
+      <c r="I1" s="3" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
@@ -2057,6 +2073,9 @@
       <c r="H2" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="I2" s="1" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -2083,6 +2102,9 @@
       <c r="H3" s="5">
         <v>1</v>
       </c>
+      <c r="I3" s="6">
+        <v>43992</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -2109,6 +2131,9 @@
       <c r="H4" s="5">
         <v>2</v>
       </c>
+      <c r="I4" s="6">
+        <v>43992</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
@@ -2133,7 +2158,10 @@
         <v>4</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -2161,6 +2189,9 @@
       <c r="H6" s="5">
         <v>2</v>
       </c>
+      <c r="I6" s="6">
+        <v>43992</v>
+      </c>
       <c r="L6" t="s">
         <v>57</v>
       </c>
@@ -2190,11 +2221,14 @@
       <c r="H7" s="5">
         <v>2</v>
       </c>
+      <c r="I7" s="6">
+        <v>43992</v>
+      </c>
       <c r="L7" t="s">
         <v>58</v>
       </c>
       <c r="M7" t="s">
-        <v>59</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -2222,11 +2256,14 @@
       <c r="H8" s="5">
         <v>2</v>
       </c>
+      <c r="I8" s="6">
+        <v>43992</v>
+      </c>
       <c r="L8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -2252,13 +2289,16 @@
         <v>8</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="L9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="M9" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -2270,11 +2310,12 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
       <c r="L10" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M10" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -2286,11 +2327,12 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
       <c r="L11" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="M11" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -2302,11 +2344,12 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
       <c r="L12" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="M12" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -2318,11 +2361,12 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
       <c r="L13" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="M13" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -2334,11 +2378,12 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
       <c r="L14" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="M14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -2350,6 +2395,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
@@ -2360,8 +2406,9 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2370,8 +2417,9 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2380,8 +2428,9 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2390,8 +2439,9 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2400,8 +2450,9 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2410,8 +2461,9 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2420,8 +2472,9 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2430,8 +2483,9 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2440,8 +2494,9 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2450,8 +2505,9 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2460,8 +2516,9 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2470,8 +2527,9 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2480,8 +2538,9 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2490,8 +2549,9 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2500,8 +2560,9 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2510,10 +2571,12 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2521,7 +2584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
@@ -2562,7 +2625,7 @@
         <v>28</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -2636,10 +2699,10 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="L6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -2654,10 +2717,10 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="L7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -2672,10 +2735,10 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="L8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -2690,7 +2753,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="M9" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -2705,10 +2768,10 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="L10" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="M10" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -2723,10 +2786,10 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="L11" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="M11" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -2741,10 +2804,10 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="L12" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M12" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -2759,13 +2822,13 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="L13" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="M13">
         <v>9901</v>
       </c>
       <c r="N13" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -2783,7 +2846,7 @@
         <v>9902</v>
       </c>
       <c r="N14" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -2801,7 +2864,7 @@
         <v>9903</v>
       </c>
       <c r="N15" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -2816,10 +2879,10 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="L16" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M16" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
@@ -2834,13 +2897,13 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="L17" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="M17" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="N17" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
@@ -2855,10 +2918,10 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="M18" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="N18" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">

--- a/public/import/hc.xlsx
+++ b/public/import/hc.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="150">
   <si>
     <t>总层数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -602,6 +602,33 @@
   </si>
   <si>
     <t>如果一个房屋对应多个费用信息，费用信息间用#号分隔，如果费用设置中没有费用时这里填写为0 系统默认费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-6-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2037-1-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意必须是文本格式如2020-01-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-06-10</t>
+  </si>
+  <si>
+    <t>2020-06-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用到期时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果一个房屋对应多个费用信息，费用到期时间间用#号分隔，如果费用设置中没有费用时这里填写系统默认费用到期时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -660,7 +687,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -672,10 +699,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1440,7 +1472,7 @@
       <c r="E2" s="1">
         <v>18999999999</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1460,7 +1492,7 @@
       <c r="E3" s="1">
         <v>18999999991</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1480,7 +1512,7 @@
       <c r="E4" s="1">
         <v>18999999992</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1500,7 +1532,7 @@
       <c r="E5" s="1">
         <v>18999999993</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1520,7 +1552,7 @@
       <c r="E6" s="1">
         <v>18999999994</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1530,7 +1562,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="8"/>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
@@ -1538,7 +1570,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="8"/>
+      <c r="F8" s="6"/>
       <c r="J8" t="s">
         <v>57</v>
       </c>
@@ -1549,7 +1581,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="8"/>
+      <c r="F9" s="6"/>
       <c r="J9" t="s">
         <v>85</v>
       </c>
@@ -1563,7 +1595,7 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="8"/>
+      <c r="F10" s="6"/>
       <c r="J10" t="s">
         <v>87</v>
       </c>
@@ -1577,7 +1609,7 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="8"/>
+      <c r="F11" s="6"/>
       <c r="J11" t="s">
         <v>89</v>
       </c>
@@ -1591,7 +1623,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="8"/>
+      <c r="F12" s="6"/>
       <c r="J12" t="s">
         <v>91</v>
       </c>
@@ -1605,7 +1637,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="8"/>
+      <c r="F13" s="6"/>
       <c r="J13" t="s">
         <v>93</v>
       </c>
@@ -1619,7 +1651,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="8"/>
+      <c r="F14" s="6"/>
       <c r="J14" t="s">
         <v>95</v>
       </c>
@@ -1633,7 +1665,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="8"/>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
@@ -1641,7 +1673,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="8"/>
+      <c r="F16" s="6"/>
       <c r="J16" t="s">
         <v>97</v>
       </c>
@@ -1655,7 +1687,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="8"/>
+      <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
@@ -1663,7 +1695,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="8"/>
+      <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
@@ -1671,7 +1703,7 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="8"/>
+      <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
@@ -1679,7 +1711,7 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="8"/>
+      <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
@@ -1687,7 +1719,7 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="8"/>
+      <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
@@ -1695,7 +1727,7 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="8"/>
+      <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
@@ -1703,7 +1735,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="8"/>
+      <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
@@ -1711,7 +1743,7 @@
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="8"/>
+      <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
@@ -1719,7 +1751,7 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="8"/>
+      <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
@@ -1727,7 +1759,7 @@
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="8"/>
+      <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
@@ -1735,7 +1767,7 @@
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="8"/>
+      <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
@@ -1743,7 +1775,7 @@
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="8"/>
+      <c r="F28" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1757,128 +1789,130 @@
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="7" width="9" style="7"/>
+    <col min="8" max="8" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="9" style="7"/>
     <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="38.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="17.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="6" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="6">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="6">
-        <v>43992</v>
-      </c>
-      <c r="I2" s="6">
-        <v>50041</v>
-      </c>
-      <c r="J2" s="1">
+      <c r="H2" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="J2" s="6">
         <v>1001</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="6">
         <v>1.3</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="6">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="6">
         <v>3</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="6">
-        <v>43992</v>
-      </c>
-      <c r="I3" s="6">
-        <v>50041</v>
-      </c>
-      <c r="J3" s="1">
+      <c r="H3" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="J3" s="6">
         <v>1001</v>
       </c>
-      <c r="K3" s="1">
-        <v>1</v>
-      </c>
-      <c r="L3" s="1">
+      <c r="K3" s="6">
+        <v>1</v>
+      </c>
+      <c r="L3" s="6">
         <v>20</v>
       </c>
     </row>
@@ -1973,16 +2007,22 @@
       <c r="P16" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="17" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="Q16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="15:17" x14ac:dyDescent="0.2">
       <c r="O17" t="s">
         <v>75</v>
       </c>
       <c r="P17" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="18" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="Q17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="15:17" x14ac:dyDescent="0.2">
       <c r="O18" t="s">
         <v>44</v>
       </c>
@@ -1990,7 +2030,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="15:17" x14ac:dyDescent="0.2">
       <c r="O19" t="s">
         <v>45</v>
       </c>
@@ -2007,222 +2047,223 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="9" style="7"/>
+    <col min="9" max="9" width="24" style="7" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="51.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="9" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1011</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6">
         <v>1010</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="6">
         <v>94.56</v>
       </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="G2" s="6">
+        <v>1</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1012</v>
       </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6">
         <v>1010</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="6">
         <v>94.56</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="6">
         <v>2</v>
       </c>
       <c r="H3" s="5">
         <v>1</v>
       </c>
-      <c r="I3" s="6">
-        <v>43992</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I3" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1013</v>
       </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6">
         <v>1010</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="6">
         <v>94.56</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="6">
         <v>3</v>
       </c>
       <c r="H4" s="5">
         <v>2</v>
       </c>
-      <c r="I4" s="6">
-        <v>43992</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I4" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1014</v>
       </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6">
         <v>1010</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="6">
         <v>94.56</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="6">
         <v>4</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1021</v>
       </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6">
+        <v>2</v>
+      </c>
+      <c r="E6" s="6">
         <v>1010</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="6">
         <v>94.56</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="6">
         <v>5</v>
       </c>
       <c r="H6" s="5">
         <v>2</v>
       </c>
-      <c r="I6" s="6">
-        <v>43992</v>
+      <c r="I6" s="6" t="s">
+        <v>146</v>
       </c>
       <c r="L6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1022</v>
       </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="B7" s="6">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6">
+        <v>2</v>
+      </c>
+      <c r="E7" s="6">
         <v>1010</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="6">
         <v>94.56</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="6">
         <v>6</v>
       </c>
       <c r="H7" s="5">
         <v>2</v>
       </c>
-      <c r="I7" s="6">
-        <v>43992</v>
+      <c r="I7" s="6" t="s">
+        <v>146</v>
       </c>
       <c r="L7" t="s">
         <v>58</v>
@@ -2231,33 +2272,33 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1023</v>
       </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="B8" s="6">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6">
+        <v>2</v>
+      </c>
+      <c r="E8" s="6">
         <v>1010</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="6">
         <v>94.56</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="6">
         <v>7</v>
       </c>
       <c r="H8" s="5">
         <v>2</v>
       </c>
-      <c r="I8" s="6">
-        <v>43992</v>
+      <c r="I8" s="6" t="s">
+        <v>146</v>
       </c>
       <c r="L8" t="s">
         <v>99</v>
@@ -2266,32 +2307,32 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1024</v>
       </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="B9" s="6">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6">
+        <v>2</v>
+      </c>
+      <c r="E9" s="6">
         <v>1010</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="6">
         <v>94.56</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="6">
         <v>8</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="6" t="s">
         <v>137</v>
       </c>
       <c r="L9" t="s">
@@ -2301,16 +2342,16 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
       <c r="L10" t="s">
         <v>101</v>
       </c>
@@ -2318,16 +2359,16 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
       <c r="L11" t="s">
         <v>104</v>
       </c>
@@ -2335,16 +2376,16 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
       <c r="L12" t="s">
         <v>106</v>
       </c>
@@ -2352,16 +2393,16 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
       <c r="L13" t="s">
         <v>108</v>
       </c>
@@ -2369,16 +2410,16 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
       <c r="L14" t="s">
         <v>110</v>
       </c>
@@ -2386,192 +2427,201 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="L15" t="s">
+        <v>148</v>
+      </c>
+      <c r="M15" t="s">
+        <v>149</v>
+      </c>
+      <c r="N15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/public/import/hc.xlsx
+++ b/public/import/hc.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="149">
   <si>
     <t>总层数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -577,10 +577,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>费用到期时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2020-06-10#2020-07-10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -624,11 +620,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>费用到期时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果一个房屋对应多个费用信息，费用到期时间间用#号分隔，如果费用设置中没有费用时这里填写系统默认费用到期时间</t>
+    <t>费用开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果一个房屋对应多个费用信息，费用开始时间间用#号分隔，如果费用设置中没有费用时这里填写系统默认费用到期时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1854,7 +1850,7 @@
         <v>47</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F2" s="6">
         <v>6</v>
@@ -1863,10 +1859,10 @@
         <v>49</v>
       </c>
       <c r="H2" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>143</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>144</v>
       </c>
       <c r="J2" s="6">
         <v>1001</v>
@@ -1901,10 +1897,10 @@
         <v>49</v>
       </c>
       <c r="H3" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>143</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>144</v>
       </c>
       <c r="J3" s="6">
         <v>1001</v>
@@ -1987,7 +1983,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
@@ -2008,7 +2004,7 @@
         <v>74</v>
       </c>
       <c r="Q16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="15:17" x14ac:dyDescent="0.2">
@@ -2019,7 +2015,7 @@
         <v>76</v>
       </c>
       <c r="Q17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="15:17" x14ac:dyDescent="0.2">
@@ -2027,7 +2023,7 @@
         <v>44</v>
       </c>
       <c r="P18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="15:17" x14ac:dyDescent="0.2">
@@ -2035,7 +2031,7 @@
         <v>45</v>
       </c>
       <c r="P19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2086,7 +2082,7 @@
         <v>53</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -2115,7 +2111,7 @@
         <v>56</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -2144,7 +2140,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -2173,7 +2169,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -2202,7 +2198,7 @@
         <v>59</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -2231,7 +2227,7 @@
         <v>2</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L6" t="s">
         <v>57</v>
@@ -2263,13 +2259,13 @@
         <v>2</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L7" t="s">
         <v>58</v>
       </c>
       <c r="M7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -2298,7 +2294,7 @@
         <v>2</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L8" t="s">
         <v>99</v>
@@ -2333,7 +2329,7 @@
         <v>60</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L9" t="s">
         <v>78</v>
@@ -2437,14 +2433,14 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
-      <c r="L15" t="s">
+      <c r="L15" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="M15" t="s">
         <v>148</v>
       </c>
-      <c r="M15" t="s">
-        <v>149</v>
-      </c>
       <c r="N15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">

--- a/public/import/hc.xlsx
+++ b/public/import/hc.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\project\hc\MicroCommunityWeb\public\import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\vip\MicroCommunityWeb\public\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C6BF47-EE99-4206-BF27-A82A21FE2F52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="楼栋单元" sheetId="1" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="147">
   <si>
     <t>总层数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -481,10 +482,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>停车场编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>小区停车场编号，只有一个是填写1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -497,22 +494,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>停车场类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地上停车位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>地下停车位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>如果有填写真实面积，没有写1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -521,10 +506,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>车牌号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>车辆车牌号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -545,10 +526,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>颜色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>车辆颜色</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -625,13 +602,29 @@
   </si>
   <si>
     <t>如果一个房屋对应多个费用信息，费用开始时间间用#号分隔，如果费用设置中没有费用时这里填写系统默认费用到期时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆起租时间,格式为YYYY-MM-DD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆截止时间，如果是出售 默认写2037-1-1 格式为YYYY-MM-DD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -983,7 +976,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1418,7 +1411,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1781,7 +1774,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1850,7 +1843,7 @@
         <v>47</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F2" s="6">
         <v>6</v>
@@ -1859,10 +1852,10 @@
         <v>49</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="J2" s="6">
         <v>1001</v>
@@ -1897,10 +1890,10 @@
         <v>49</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="J3" s="6">
         <v>1001</v>
@@ -1983,7 +1976,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P13" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
@@ -2004,7 +1997,7 @@
         <v>74</v>
       </c>
       <c r="Q16" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="15:17" x14ac:dyDescent="0.2">
@@ -2015,7 +2008,7 @@
         <v>76</v>
       </c>
       <c r="Q17" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="15:17" x14ac:dyDescent="0.2">
@@ -2023,7 +2016,7 @@
         <v>44</v>
       </c>
       <c r="P18" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="15:17" x14ac:dyDescent="0.2">
@@ -2031,7 +2024,7 @@
         <v>45</v>
       </c>
       <c r="P19" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2042,10 +2035,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
@@ -2082,7 +2075,7 @@
         <v>53</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -2111,7 +2104,7 @@
         <v>56</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -2140,7 +2133,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -2169,7 +2162,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -2198,7 +2191,7 @@
         <v>59</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -2227,7 +2220,7 @@
         <v>2</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="L6" t="s">
         <v>57</v>
@@ -2259,13 +2252,13 @@
         <v>2</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="L7" t="s">
         <v>58</v>
       </c>
       <c r="M7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -2294,7 +2287,7 @@
         <v>2</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="L8" t="s">
         <v>99</v>
@@ -2329,7 +2322,7 @@
         <v>60</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="L9" t="s">
         <v>78</v>
@@ -2434,13 +2427,13 @@
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="L15" s="9" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M15" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="N15" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -2627,11 +2620,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="A1:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2640,9 +2633,10 @@
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="46.375" customWidth="1"/>
     <col min="10" max="10" width="28" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="46.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -2671,10 +2665,16 @@
         <v>28</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2693,8 +2693,10 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2705,8 +2707,16 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="P3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2717,8 +2727,22 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="P4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>112</v>
+      </c>
+      <c r="R4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -2729,11 +2753,22 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="L5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="P5" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>114</v>
+      </c>
+      <c r="R5" t="s">
+        <v>113</v>
+      </c>
+      <c r="S5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2744,14 +2779,22 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="L6" t="s">
-        <v>112</v>
-      </c>
-      <c r="M6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="P6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>25</v>
+      </c>
+      <c r="R6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2762,14 +2805,16 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="L7" t="s">
-        <v>114</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="Q7" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="S7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2780,14 +2825,22 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="L8" t="s">
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="P8" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q8" t="s">
         <v>116</v>
       </c>
-      <c r="M8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R8" t="s">
+        <v>23</v>
+      </c>
+      <c r="S8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2798,11 +2851,22 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="M9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="P9" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>117</v>
+      </c>
+      <c r="R9" t="s">
+        <v>14</v>
+      </c>
+      <c r="S9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2813,14 +2877,22 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="L10" t="s">
-        <v>119</v>
-      </c>
-      <c r="M10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="P10" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>118</v>
+      </c>
+      <c r="R10" t="s">
+        <v>26</v>
+      </c>
+      <c r="S10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2831,14 +2903,25 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="L11" t="s">
-        <v>85</v>
-      </c>
-      <c r="M11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="P11" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q11">
+        <v>9901</v>
+      </c>
+      <c r="R11" t="s">
+        <v>119</v>
+      </c>
+      <c r="S11">
+        <v>9901</v>
+      </c>
+      <c r="T11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -2849,14 +2932,19 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="L12" t="s">
-        <v>122</v>
-      </c>
-      <c r="M12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="Q12">
+        <v>9902</v>
+      </c>
+      <c r="S12">
+        <v>9902</v>
+      </c>
+      <c r="T12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2867,17 +2955,19 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="L13" t="s">
-        <v>124</v>
-      </c>
-      <c r="M13">
-        <v>9901</v>
-      </c>
-      <c r="N13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="Q13">
+        <v>9903</v>
+      </c>
+      <c r="S13">
+        <v>9903</v>
+      </c>
+      <c r="T13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2888,14 +2978,22 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="M14">
-        <v>9902</v>
-      </c>
-      <c r="N14" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="P14" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>123</v>
+      </c>
+      <c r="R14" t="s">
+        <v>28</v>
+      </c>
+      <c r="S14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2906,14 +3004,25 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="M15">
-        <v>9903</v>
-      </c>
-      <c r="N15" t="s">
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="P15" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>126</v>
+      </c>
+      <c r="R15" t="s">
+        <v>124</v>
+      </c>
+      <c r="S15" t="s">
+        <v>126</v>
+      </c>
+      <c r="T15" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2924,14 +3033,19 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="L16" t="s">
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="Q16" t="s">
         <v>128</v>
       </c>
-      <c r="M16" t="s">
+      <c r="S16" t="s">
+        <v>128</v>
+      </c>
+      <c r="T16" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2942,17 +3056,16 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="L17" t="s">
-        <v>130</v>
-      </c>
-      <c r="M17" t="s">
-        <v>132</v>
-      </c>
-      <c r="N17" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="P17" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2963,14 +3076,16 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="M18" t="s">
-        <v>134</v>
-      </c>
-      <c r="N18" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="P18" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2981,8 +3096,10 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2993,8 +3110,10 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -3005,8 +3124,10 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -3017,6 +3138,8 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/public/import/hc.xlsx
+++ b/public/import/hc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\vip\MicroCommunityWeb\public\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C6BF47-EE99-4206-BF27-A82A21FE2F52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F746C8-D80E-47D5-8168-0734CC5A2ABD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="楼栋单元" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="155">
   <si>
     <t>总层数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -618,6 +618,38 @@
   </si>
   <si>
     <t>车辆截止时间，如果是出售 默认写2037-1-1 格式为YYYY-MM-DD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房屋类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>室内面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住宅 110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>办公室 120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宿舍 119</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>室内面价，主要用于北方计算暖气费，没有暖气费可以和建筑面积填写一样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当房屋类型为 办公室或者宿舍时 出租时的租金，住宅时填写为0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2036,20 +2068,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="8" width="9" style="7"/>
     <col min="9" max="9" width="24" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="51.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5" customWidth="1"/>
+    <col min="14" max="14" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -2077,8 +2110,17 @@
       <c r="I1" s="9" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J1" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1011</v>
       </c>
@@ -2106,8 +2148,17 @@
       <c r="I2" s="6" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J2" s="1">
+        <v>110</v>
+      </c>
+      <c r="K2" s="6">
+        <v>94.56</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1012</v>
       </c>
@@ -2135,8 +2186,17 @@
       <c r="I3" s="6" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J3" s="1">
+        <v>110</v>
+      </c>
+      <c r="K3" s="6">
+        <v>94.56</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1013</v>
       </c>
@@ -2164,8 +2224,17 @@
       <c r="I4" s="6" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J4" s="1">
+        <v>110</v>
+      </c>
+      <c r="K4" s="6">
+        <v>94.56</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1014</v>
       </c>
@@ -2193,8 +2262,17 @@
       <c r="I5" s="6" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J5" s="1">
+        <v>110</v>
+      </c>
+      <c r="K5" s="6">
+        <v>94.56</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1021</v>
       </c>
@@ -2222,11 +2300,20 @@
       <c r="I6" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="L6" t="s">
+      <c r="J6" s="1">
+        <v>110</v>
+      </c>
+      <c r="K6" s="6">
+        <v>94.56</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1022</v>
       </c>
@@ -2254,14 +2341,23 @@
       <c r="I7" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="L7" t="s">
+      <c r="J7" s="1">
+        <v>110</v>
+      </c>
+      <c r="K7" s="6">
+        <v>94.56</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
         <v>58</v>
       </c>
-      <c r="M7" t="s">
+      <c r="O7" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1023</v>
       </c>
@@ -2289,14 +2385,23 @@
       <c r="I8" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="L8" t="s">
+      <c r="J8" s="1">
+        <v>110</v>
+      </c>
+      <c r="K8" s="6">
+        <v>94.56</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
         <v>99</v>
       </c>
-      <c r="M8" t="s">
+      <c r="O8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1024</v>
       </c>
@@ -2324,14 +2429,23 @@
       <c r="I9" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="L9" t="s">
+      <c r="J9" s="1">
+        <v>110</v>
+      </c>
+      <c r="K9" s="6">
+        <v>94.56</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" t="s">
         <v>78</v>
       </c>
-      <c r="M9" t="s">
+      <c r="O9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -2341,14 +2455,17 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="L10" t="s">
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="N10" t="s">
         <v>101</v>
       </c>
-      <c r="M10" t="s">
+      <c r="O10" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -2358,14 +2475,17 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="L11" t="s">
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="N11" t="s">
         <v>104</v>
       </c>
-      <c r="M11" t="s">
+      <c r="O11" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -2375,14 +2495,17 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-      <c r="L12" t="s">
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="N12" t="s">
         <v>106</v>
       </c>
-      <c r="M12" t="s">
+      <c r="O12" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -2392,14 +2515,17 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
-      <c r="L13" t="s">
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="N13" t="s">
         <v>108</v>
       </c>
-      <c r="M13" t="s">
+      <c r="O13" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -2409,14 +2535,17 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
-      <c r="L14" t="s">
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="N14" t="s">
         <v>110</v>
       </c>
-      <c r="M14" t="s">
+      <c r="O14" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -2426,17 +2555,20 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
-      <c r="L15" s="9" t="s">
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="N15" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="M15" t="s">
+      <c r="O15" t="s">
         <v>142</v>
       </c>
-      <c r="N15" t="s">
+      <c r="P15" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -2446,8 +2578,17 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="N16" t="s">
+        <v>147</v>
+      </c>
+      <c r="O16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -2457,8 +2598,14 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="O17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -2468,8 +2615,14 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="O18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -2479,8 +2632,17 @@
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="N19" t="s">
+        <v>148</v>
+      </c>
+      <c r="O19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -2490,8 +2652,17 @@
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="N20" t="s">
+        <v>149</v>
+      </c>
+      <c r="O20" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -2501,8 +2672,11 @@
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -2512,8 +2686,11 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -2523,8 +2700,11 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -2534,8 +2714,11 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -2545,8 +2728,11 @@
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -2556,8 +2742,11 @@
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -2567,8 +2756,11 @@
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -2578,8 +2770,11 @@
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -2589,8 +2784,11 @@
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -2600,8 +2798,11 @@
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -2611,6 +2812,9 @@
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2623,8 +2827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="A1:F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/public/import/hc.xlsx
+++ b/public/import/hc.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\vip\MicroCommunityWeb\public\import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\project\hc\MicroCommunityWeb\public\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F746C8-D80E-47D5-8168-0734CC5A2ABD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="楼栋单元" sheetId="1" r:id="rId1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="160">
   <si>
     <t>总层数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -650,13 +649,36 @@
   </si>
   <si>
     <t>当房屋类型为 办公室或者宿舍时 出租时的租金，住宅时填写为0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业主类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业主编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001 业主
+1002 家庭成员
+1003 房屋租客
+1004 临时人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当业主类型为业主时 填写编号，如果是家庭成员 房屋租客 临时人员时，填写对应业主编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1008,7 +1030,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1443,11 +1465,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1459,7 +1481,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>10</v>
@@ -1476,6 +1498,12 @@
       <c r="F1" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="G1" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
@@ -1496,6 +1524,12 @@
       <c r="F2" s="5" t="s">
         <v>30</v>
       </c>
+      <c r="G2" s="1">
+        <v>1001</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -1515,6 +1549,12 @@
       </c>
       <c r="F3" s="5" t="s">
         <v>30</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1001</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -1536,6 +1576,12 @@
       <c r="F4" s="5" t="s">
         <v>30</v>
       </c>
+      <c r="G4" s="1">
+        <v>1001</v>
+      </c>
+      <c r="H4" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
@@ -1556,6 +1602,12 @@
       <c r="F5" s="5" t="s">
         <v>30</v>
       </c>
+      <c r="G5" s="1">
+        <v>1001</v>
+      </c>
+      <c r="H5" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -1575,6 +1627,12 @@
       </c>
       <c r="F6" s="5" t="s">
         <v>30</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1001</v>
+      </c>
+      <c r="H6" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -1584,6 +1642,8 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="6"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
@@ -1592,6 +1652,8 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="6"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
       <c r="J8" t="s">
         <v>57</v>
       </c>
@@ -1603,6 +1665,8 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="6"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
       <c r="J9" t="s">
         <v>85</v>
       </c>
@@ -1617,6 +1681,8 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="6"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
       <c r="J10" t="s">
         <v>87</v>
       </c>
@@ -1631,6 +1697,8 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="6"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
       <c r="J11" t="s">
         <v>89</v>
       </c>
@@ -1645,6 +1713,8 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="6"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
       <c r="J12" t="s">
         <v>91</v>
       </c>
@@ -1659,6 +1729,8 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="6"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
       <c r="J13" t="s">
         <v>93</v>
       </c>
@@ -1673,6 +1745,8 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="6"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
       <c r="J14" t="s">
         <v>95</v>
       </c>
@@ -1680,123 +1754,163 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="57" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="J15" t="s">
+        <v>155</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="6"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
       <c r="J16" t="s">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="J17" t="s">
+        <v>97</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="6"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="6"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="6"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="6"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="6"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="6"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="6"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1806,7 +1920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2067,10 +2181,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
@@ -2824,7 +2938,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/public/import/hc.xlsx
+++ b/public/import/hc.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\project\hc\MicroCommunityWeb\public\import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\vip\MicroCommunityWeb\public\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB27791-F5DC-44DE-8AF2-30049C98CC33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="楼栋单元" sheetId="1" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="161">
   <si>
     <t>总层数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -458,10 +459,6 @@
   </si>
   <si>
     <t>房屋户型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前填写为1010</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -674,11 +671,18 @@
     <t>当业主类型为业主时 填写编号，如果是家庭成员 房屋租客 临时人员时，填写对应业主编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>10102</t>
+  </si>
+  <si>
+    <t>目前填写为10102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1030,7 +1034,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1465,10 +1469,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
@@ -1481,7 +1485,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>10</v>
@@ -1499,10 +1503,10 @@
         <v>29</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -1764,10 +1768,10 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="J15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
@@ -1783,7 +1787,7 @@
         <v>14</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="71.25" x14ac:dyDescent="0.2">
@@ -1920,7 +1924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1989,7 +1993,7 @@
         <v>47</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F2" s="6">
         <v>6</v>
@@ -1998,10 +2002,10 @@
         <v>49</v>
       </c>
       <c r="H2" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>136</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>137</v>
       </c>
       <c r="J2" s="6">
         <v>1001</v>
@@ -2036,10 +2040,10 @@
         <v>49</v>
       </c>
       <c r="H3" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>136</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>137</v>
       </c>
       <c r="J3" s="6">
         <v>1001</v>
@@ -2122,7 +2126,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
@@ -2143,7 +2147,7 @@
         <v>74</v>
       </c>
       <c r="Q16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="15:17" x14ac:dyDescent="0.2">
@@ -2154,7 +2158,7 @@
         <v>76</v>
       </c>
       <c r="Q17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="15:17" x14ac:dyDescent="0.2">
@@ -2162,7 +2166,7 @@
         <v>44</v>
       </c>
       <c r="P18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="15:17" x14ac:dyDescent="0.2">
@@ -2170,7 +2174,7 @@
         <v>45</v>
       </c>
       <c r="P19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2181,11 +2185,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R26" sqref="R26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2222,16 +2226,16 @@
         <v>53</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J1" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="K1" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>148</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -2247,8 +2251,8 @@
       <c r="D2" s="6">
         <v>1</v>
       </c>
-      <c r="E2" s="6">
-        <v>1010</v>
+      <c r="E2" s="6" t="s">
+        <v>159</v>
       </c>
       <c r="F2" s="6">
         <v>94.56</v>
@@ -2260,7 +2264,7 @@
         <v>56</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J2" s="1">
         <v>110</v>
@@ -2285,8 +2289,8 @@
       <c r="D3" s="6">
         <v>1</v>
       </c>
-      <c r="E3" s="6">
-        <v>1010</v>
+      <c r="E3" s="6" t="s">
+        <v>159</v>
       </c>
       <c r="F3" s="6">
         <v>94.56</v>
@@ -2298,7 +2302,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J3" s="1">
         <v>110</v>
@@ -2323,8 +2327,8 @@
       <c r="D4" s="6">
         <v>1</v>
       </c>
-      <c r="E4" s="6">
-        <v>1010</v>
+      <c r="E4" s="6" t="s">
+        <v>159</v>
       </c>
       <c r="F4" s="6">
         <v>94.56</v>
@@ -2336,7 +2340,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J4" s="1">
         <v>110</v>
@@ -2361,8 +2365,8 @@
       <c r="D5" s="6">
         <v>1</v>
       </c>
-      <c r="E5" s="6">
-        <v>1010</v>
+      <c r="E5" s="6" t="s">
+        <v>159</v>
       </c>
       <c r="F5" s="6">
         <v>94.56</v>
@@ -2374,7 +2378,7 @@
         <v>59</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J5" s="1">
         <v>110</v>
@@ -2399,8 +2403,8 @@
       <c r="D6" s="6">
         <v>2</v>
       </c>
-      <c r="E6" s="6">
-        <v>1010</v>
+      <c r="E6" s="6" t="s">
+        <v>159</v>
       </c>
       <c r="F6" s="6">
         <v>94.56</v>
@@ -2412,7 +2416,7 @@
         <v>2</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J6" s="1">
         <v>110</v>
@@ -2440,8 +2444,8 @@
       <c r="D7" s="6">
         <v>2</v>
       </c>
-      <c r="E7" s="6">
-        <v>1010</v>
+      <c r="E7" s="6" t="s">
+        <v>159</v>
       </c>
       <c r="F7" s="6">
         <v>94.56</v>
@@ -2453,7 +2457,7 @@
         <v>2</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J7" s="1">
         <v>110</v>
@@ -2468,7 +2472,7 @@
         <v>58</v>
       </c>
       <c r="O7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -2484,8 +2488,8 @@
       <c r="D8" s="6">
         <v>2</v>
       </c>
-      <c r="E8" s="6">
-        <v>1010</v>
+      <c r="E8" s="6" t="s">
+        <v>159</v>
       </c>
       <c r="F8" s="6">
         <v>94.56</v>
@@ -2497,7 +2501,7 @@
         <v>2</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J8" s="1">
         <v>110</v>
@@ -2528,8 +2532,8 @@
       <c r="D9" s="6">
         <v>2</v>
       </c>
-      <c r="E9" s="6">
-        <v>1010</v>
+      <c r="E9" s="6" t="s">
+        <v>159</v>
       </c>
       <c r="F9" s="6">
         <v>94.56</v>
@@ -2541,7 +2545,7 @@
         <v>60</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J9" s="1">
         <v>110</v>
@@ -2616,7 +2620,7 @@
         <v>106</v>
       </c>
       <c r="O12" t="s">
-        <v>107</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -2633,10 +2637,10 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="N13" t="s">
+        <v>107</v>
+      </c>
+      <c r="O13" t="s">
         <v>108</v>
-      </c>
-      <c r="O13" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -2653,10 +2657,10 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="N14" t="s">
+        <v>109</v>
+      </c>
+      <c r="O14" t="s">
         <v>110</v>
-      </c>
-      <c r="O14" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -2673,13 +2677,13 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="N15" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="O15" t="s">
         <v>141</v>
       </c>
-      <c r="O15" t="s">
-        <v>142</v>
-      </c>
       <c r="P15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -2696,10 +2700,10 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="N16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
@@ -2716,7 +2720,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="O17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
@@ -2733,7 +2737,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="O18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
@@ -2750,10 +2754,10 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="N19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
@@ -2770,10 +2774,10 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="N20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
@@ -2938,7 +2942,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2983,13 +2987,13 @@
         <v>28</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
@@ -3051,13 +3055,13 @@
         <v>31</v>
       </c>
       <c r="Q4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R4" t="s">
         <v>31</v>
       </c>
       <c r="S4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
@@ -3074,16 +3078,16 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="P5" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q5" t="s">
         <v>113</v>
       </c>
-      <c r="Q5" t="s">
-        <v>114</v>
-      </c>
       <c r="R5" t="s">
+        <v>112</v>
+      </c>
+      <c r="S5" t="s">
         <v>113</v>
-      </c>
-      <c r="S5" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
@@ -3126,10 +3130,10 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="Q7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="S7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
@@ -3149,13 +3153,13 @@
         <v>23</v>
       </c>
       <c r="Q8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R8" t="s">
         <v>23</v>
       </c>
       <c r="S8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
@@ -3175,13 +3179,13 @@
         <v>14</v>
       </c>
       <c r="Q9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R9" t="s">
         <v>14</v>
       </c>
       <c r="S9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
@@ -3201,13 +3205,13 @@
         <v>26</v>
       </c>
       <c r="Q10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R10" t="s">
         <v>26</v>
       </c>
       <c r="S10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
@@ -3224,19 +3228,19 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="P11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q11">
         <v>9901</v>
       </c>
       <c r="R11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S11">
         <v>9901</v>
       </c>
       <c r="T11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
@@ -3259,7 +3263,7 @@
         <v>9902</v>
       </c>
       <c r="T12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
@@ -3282,7 +3286,7 @@
         <v>9903</v>
       </c>
       <c r="T13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
@@ -3302,13 +3306,13 @@
         <v>28</v>
       </c>
       <c r="Q14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R14" t="s">
         <v>28</v>
       </c>
       <c r="S14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
@@ -3325,19 +3329,19 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="P15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q15" t="s">
+        <v>125</v>
+      </c>
+      <c r="R15" t="s">
+        <v>123</v>
+      </c>
+      <c r="S15" t="s">
+        <v>125</v>
+      </c>
+      <c r="T15" t="s">
         <v>126</v>
-      </c>
-      <c r="R15" t="s">
-        <v>124</v>
-      </c>
-      <c r="S15" t="s">
-        <v>126</v>
-      </c>
-      <c r="T15" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
@@ -3354,13 +3358,13 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="Q16" t="s">
+        <v>127</v>
+      </c>
+      <c r="S16" t="s">
+        <v>127</v>
+      </c>
+      <c r="T16" t="s">
         <v>128</v>
-      </c>
-      <c r="S16" t="s">
-        <v>128</v>
-      </c>
-      <c r="T16" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
@@ -3377,10 +3381,10 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="P17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
@@ -3397,10 +3401,10 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="P18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
